--- a/Word-Printer/samples/Level4/四层项目/XXX项目/08 ZRXX-20000-CM-P-01 配置管理程序记录/ZRXX-20000-CM-R-05 配置管理统计报表-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/08 ZRXX-20000-CM-P-01 配置管理程序记录/ZRXX-20000-CM-R-05 配置管理统计报表-XXX项目.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层项目\XXX项目\08 ZRXX-20000-CM-P-01 配置管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="配置管理统计报表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">配置管理统计报表!$A$1:$J$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">配置管理统计报表!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -764,6 +769,9 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="28" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,29 +781,26 @@
     <xf numFmtId="0" fontId="23" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -810,15 +815,15 @@
     <cellStyle name="解释性文本" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="30" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="31" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="34" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="32" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="33" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="34" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="41" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,7 +840,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -862,7 +867,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>配置管理统计报表!$C$7</c:f>
+              <c:f>配置管理统计报表!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -874,14 +879,45 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8777-4697-A7B6-96EB299EE4E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8777-4697-A7B6-96EB299EE4E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>配置管理统计报表!$B$9:$B$11</c:f>
+              <c:f>配置管理统计报表!$B$7:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -898,7 +934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>配置管理统计报表!$C$9:$C$11</c:f>
+              <c:f>配置管理统计报表!$C$7:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -914,6 +950,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8777-4697-A7B6-96EB299EE4E6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -950,13 +991,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1024,7 +1065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,7 +1100,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1268,26 +1309,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1301,33 +1342,35 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1336,199 +1379,176 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <f>C7/C10</f>
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8/C10</f>
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9/C10</f>
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <f>SUM(C7:C9)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <f>C9/C12</f>
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="D14" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <f>C10/C12</f>
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="D16" s="7">
+        <f>C16/C19</f>
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <f>C11/C12</f>
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="17" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>C17/C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>C18/C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6">
-        <f>SUM(C9:C11)</f>
-        <v>5</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="C19" s="6">
+        <f>SUM(C16:C18)</f>
         <v>2</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="2:6" ht="13" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
-        <f>C18/C21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="13" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f>C19/C21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="13" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <f>C20/C21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="13" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6">
-        <f>SUM(C18:C20)</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:6" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:6" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Word-Printer/samples/Level4/四层项目/XXX项目/08 ZRXX-20000-CM-P-01 配置管理程序记录/ZRXX-20000-CM-R-05 配置管理统计报表-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/08 ZRXX-20000-CM-P-01 配置管理程序记录/ZRXX-20000-CM-R-05 配置管理统计报表-XXX项目.xlsx
@@ -302,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFBD0000"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -723,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,23 +763,20 @@
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -828,6 +825,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBD0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1312,7 +1314,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1329,46 +1331,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -1380,21 +1382,21 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1458,20 +1460,20 @@
       <c r="E10" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
@@ -1540,6 +1542,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B5:B6"/>
@@ -1548,7 +1551,6 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
